--- a/src/test/resources/storeText/storeText.xlsx
+++ b/src/test/resources/storeText/storeText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\storeText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4134DF5-0D7A-441F-AE7C-892442F4D3FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4418EE9A-6CC8-4F2F-9A65-AAACD50AD812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>open</t>
   </si>
@@ -152,6 +152,10 @@
   </si>
   <si>
     <t>{"target":"id=div2","value":"value2"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"target":"id=div2","value":"value3"}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -254,7 +258,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,9 +272,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -598,11 +599,11 @@
     <col min="1" max="1" width="8.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
-    <col min="4" max="4" width="24.375" customWidth="1"/>
-    <col min="5" max="5" width="6.25" customWidth="1"/>
+    <col min="4" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -615,24 +616,28 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -641,7 +646,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="2">
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2">
         <v>2000</v>
       </c>
     </row>

--- a/src/test/resources/storeText/storeText.xlsx
+++ b/src/test/resources/storeText/storeText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projs\auto-test\src\test\resources\storeText\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4418EE9A-6CC8-4F2F-9A65-AAACD50AD812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BD90C1-EF4C-4090-AECD-6D61EB38D1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -37,94 +37,90 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>id=div1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>value1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"target":"id=div2","value":"value2"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"target":"id=div2","value":"value3"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <t>{</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"url"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>"http://localhost:9001/store</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF067D17"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>Text</t>
+      <t>"url"</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
+        <color rgb="FF080808"/>
+        <rFont val="Meiryo UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color rgb="FF067D17"/>
-        <rFont val="Sarasa Mono CL"/>
+        <rFont val="Meiryo UI"/>
         <family val="3"/>
-        <charset val="136"/>
+        <charset val="128"/>
       </rPr>
-      <t>/"</t>
+      <t>"http://localhost:9001/storeText/"</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
+        <rFont val="Meiryo UI"/>
         <family val="3"/>
-        <charset val="136"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF871094"/>
-        <rFont val="Sarasa Mono CL"/>
+        <rFont val="Meiryo UI"/>
         <family val="3"/>
-        <charset val="136"/>
+        <charset val="128"/>
       </rPr>
       <t>"skip"</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
+        <rFont val="Meiryo UI"/>
         <family val="3"/>
-        <charset val="136"/>
+        <charset val="128"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF0033B3"/>
-        <rFont val="游ゴシック"/>
+        <rFont val="Meiryo UI"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
@@ -132,30 +128,14 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="10"/>
         <color rgb="FF080808"/>
-        <rFont val="Sarasa Mono CL"/>
+        <rFont val="Meiryo UI"/>
         <family val="3"/>
-        <charset val="136"/>
+        <charset val="128"/>
       </rPr>
       <t>}</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id=div1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>value1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"target":"id=div2","value":"value2"}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"target":"id=div2","value":"value3"}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -179,57 +159,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF080808"/>
-      <name val="Sarasa Mono CL"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF871094"/>
-      <name val="Sarasa Mono CL"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF067D17"/>
-      <name val="Sarasa Mono CL"/>
-      <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0033B3"/>
-      <name val="游ゴシック"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF080808"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF871094"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF067D17"/>
-      <name val="游ゴシック"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0033B3"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -241,11 +227,131 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -258,21 +364,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,9 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -603,53 +728,53 @@
     <col min="6" max="6" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="28.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="F3" s="8">
         <v>2000</v>
       </c>
     </row>
